--- a/spec/fixtures/files/models/concerns/excel/cdisc_term_reader/read_input_2.xlsx
+++ b/spec/fixtures/files/models/concerns/excel/cdisc_term_reader/read_input_2.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/concerns/excel/cdisc_term_reader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A881F9-9A6E-874A-A707-C0750DA1903D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3B43BC-CE40-244E-8FC8-5FE650A23C16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39520" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{5D1DB2E9-68CF-DC4C-8B6D-4AF09907FF27}"/>
+    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{5D1DB2E9-68CF-DC4C-8B6D-4AF09907FF27}"/>
   </bookViews>
   <sheets>
-    <sheet name="X Terminology" sheetId="1" r:id="rId1"/>
+    <sheet name="a 2017-01-03 Terminology" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -642,7 +642,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/spec/fixtures/files/models/concerns/excel/cdisc_term_reader/read_input_2.xlsx
+++ b/spec/fixtures/files/models/concerns/excel/cdisc_term_reader/read_input_2.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/concerns/excel/cdisc_term_reader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3B43BC-CE40-244E-8FC8-5FE650A23C16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D571CDF-AB55-AA41-B8A4-5864C32F61E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{5D1DB2E9-68CF-DC4C-8B6D-4AF09907FF27}"/>
   </bookViews>
   <sheets>
-    <sheet name="a 2017-01-03 Terminology" sheetId="1" r:id="rId1"/>
+    <sheet name="a 2017-01-03 SDTM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -642,7 +642,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
